--- a/2A/moyenne_2A_calcul.xlsx
+++ b/2A/moyenne_2A_calcul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\telecom\2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Knacki\telecom\2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF030E-34A6-4713-B86B-03614DD99F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D37C4-9C56-44B0-AFFE-4289D9EFF84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBFDBA91-4990-483D-A3B3-C70E8E1B508B}"/>
+    <workbookView xWindow="4590" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{DBFDBA91-4990-483D-A3B3-C70E8E1B508B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>STIC</t>
   </si>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD346C0-E921-456E-BCC3-E24766427E4C}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -720,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>12</v>
       </c>
@@ -815,7 +815,7 @@
         <v>14.16357142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -833,17 +833,17 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -860,32 +860,38 @@
       <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -896,11 +902,11 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f>D8+C8+B8</f>
-        <v>6</v>
+        <f>C8+B8</f>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -918,47 +924,53 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <f>L8+K8+J8+I8+H8</f>
-        <v>11</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>L8+K8+J8+I8+H8+G8+M8+N8</f>
+        <v>16</v>
       </c>
       <c r="R8">
-        <f>Q8+P8+O8</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>S8+R8+Q8</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <f>(B9*B8+C9*C8+D9*D8)/E8</f>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>(B9*B8+C9*C8)/D8</f>
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <f>IF(E9&gt;11,"validé","non validée")</f>
+      <c r="E9" t="str">
+        <f>IF(D9&gt;11,"validé","non validée")</f>
         <v>non validée</v>
       </c>
-      <c r="M9">
-        <f>(H9*H8+I9*I8+J8*J9+K8*K9+L9*L8)/M8</f>
+      <c r="O9">
+        <f>(H9*H8+I9*I8+J8*J9+K8*K9+L9*L8+G9+M9*M8+N9*N8)/O8</f>
         <v>0</v>
       </c>
-      <c r="N9" t="str">
+      <c r="P9" t="str">
         <f>IF(K9&gt;11,"validé","non validée")</f>
         <v>non validée</v>
       </c>
-      <c r="R9">
-        <f>(P9+Q9)/2</f>
+      <c r="T9">
+        <f>(R9+S9)/2</f>
         <v>0</v>
       </c>
-      <c r="S9" t="str">
-        <f>IF(P9&gt;11,"validé","non validée")</f>
+      <c r="U9" t="str">
+        <f>IF(R9&gt;11,"validé","non validée")</f>
         <v>non validée</v>
       </c>
-      <c r="T9">
-        <f>(E9*E8+R9*R8+M9*M8)/(E8+M8+R8)</f>
+      <c r="V9">
+        <f>(D9*D8+T9*T8+O9*O8)/(D8+O8+T8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1009,18 +1021,18 @@
       <formula>OR($E$4&lt;11,$K$4&lt;11,$P$4&lt;11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$E$9&gt;11</formula>
+      <formula>$D$9&gt;11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="10">
-      <formula>$E$9&lt;11</formula>
+      <formula>$D$9&lt;11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="11">
       <formula>$F$4&lt;11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="P9">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>$K$9&gt;11</formula>
     </cfRule>
@@ -1034,12 +1046,12 @@
       <formula>$K$4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9">
+  <conditionalFormatting sqref="U9">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$R$9&gt;11</formula>
+      <formula>$T$9&gt;11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$R$9&lt;11</formula>
+      <formula>$T$9&lt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
